--- a/d2019_formatted-METADATA.xlsx
+++ b/d2019_formatted-METADATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slane84\OneDrive - The University Of British Columbia\Documents\Dissertation\CommunityStability\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{AEEE43AA-24AA-462A-B463-40B6E05CBAE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{A2D88E0D-A05E-45AE-847E-3D54C19B1320}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{AEEE43AA-24AA-462A-B463-40B6E05CBAE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1DCEE452-045B-435C-9F5D-E6A53178BC08}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Each column is a unique species. Values indicate percent cover within the qudrat following a modified Braun-Blanquet cover class as described in Methods: [0 = (0%), 1 = (&lt; 25%), 2 = (25-50%), 3 = (50-75%), and 4 = (&gt; 75%)]</t>
-  </si>
-  <si>
-    <t>Agrostis_alba:Typha_latifolia</t>
   </si>
   <si>
     <t>d2019_formatted</t>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>June 19 - July 4, 2019</t>
+  </si>
+  <si>
+    <t>Agrostis_stolonifera:Typha_latifolia</t>
   </si>
 </sst>
 </file>
@@ -238,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -285,6 +285,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,16 +581,16 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="27.54296875" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" customWidth="1"/>
+    <col min="3" max="3" width="31.08984375" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" customWidth="1"/>
+    <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.3">
@@ -596,7 +608,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="16"/>
       <c r="D2" s="16"/>
@@ -632,7 +644,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -656,7 +668,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -680,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -692,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -737,7 +749,7 @@
         <v>27</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>24</v>
@@ -750,26 +762,26 @@
       </c>
       <c r="H13"/>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" ht="70" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:8" s="19" customFormat="1" ht="80.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H14"/>
+      <c r="H14" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -779,23 +791,23 @@
     <mergeCell ref="B10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1028,26 +1040,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78641E9-6B89-49F8-A64B-E70C791B6886}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4901A729-BF60-4E35-96E4-F33CC664023D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4901A729-BF60-4E35-96E4-F33CC664023D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78641E9-6B89-49F8-A64B-E70C791B6886}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
